--- a/Deadlines/Gantt/Gantt_Vuilbak.xlsx
+++ b/Deadlines/Gantt/Gantt_Vuilbak.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarno\Documents\GitHub\BachelorProefGarbage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarno\Documents\GitHub\PLAN-IT-B-general\Deadlines\Gantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47D5D9A-2BAC-43E5-AAA2-F32AC20671FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE168F05-3A73-4344-93E4-7BEFA1B0362A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{059AEED8-786F-47F7-8E5B-D68FAE7BED21}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{059AEED8-786F-47F7-8E5B-D68FAE7BED21}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Opdracht</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>Het maken van de designs voor de laser cutter voor het vervaardigen van de "vuilbak".</t>
-  </si>
-  <si>
-    <t>Het maken van de 3D modellen van het "vuilnis".</t>
   </si>
   <si>
     <t>beschikbare componenten</t>
@@ -578,9 +575,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Blad1!$A$3:$A$22</c:f>
+              <c:f>Blad1!$A$3:$A$21</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>Het vastleggen van het verloop van de individuele puzzel.</c:v>
                 </c:pt>
@@ -609,36 +606,33 @@
                   <c:v>Ontwerpen van het vuilbak-openingsmechanisme</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Het maken van de 3D modellen van het "vuilnis".</c:v>
+                  <c:v>Het maken van de designs voor de laser cutter voor het vervaardigen van de "vuilbak".</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Het maken van de designs voor de laser cutter voor het vervaardigen van de "vuilbak".</c:v>
+                  <c:v>Het schrijven van het programma</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Het schrijven van het programma</c:v>
+                  <c:v>Breadboardimplementatie maken.</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Breadboardimplementatie maken.</c:v>
+                  <c:v>initieel PCB design maken om te etsen.</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>initieel PCB design maken om te etsen.</c:v>
+                  <c:v>PCB etsen maken en testen.</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>PCB etsen maken en testen.</c:v>
+                  <c:v>Initieel PCB design maken voor bestelling op pcb-way.</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Initieel PCB design maken voor bestelling op pcb-way.</c:v>
+                  <c:v>PCB design aanpassen op basis van het gegeven commentaar.</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>PCB design aanpassen op basis van het gegeven commentaar.</c:v>
+                  <c:v>samenstellen geheel</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>samenstellen geheel</c:v>
+                  <c:v>Het maken van de presentatie.</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Het maken van de presentatie.</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>Het schrijven van de documentatie.</c:v>
                 </c:pt>
               </c:strCache>
@@ -646,10 +640,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$B$3:$B$22</c:f>
+              <c:f>Blad1!$B$3:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44607</c:v>
                 </c:pt>
@@ -678,36 +672,33 @@
                   <c:v>44614</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>44649</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>44628</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44649</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>44628</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44628</c:v>
+                  <c:v>44635</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44635</c:v>
+                  <c:v>44640</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44640</c:v>
+                  <c:v>44649</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44649</c:v>
+                  <c:v>44656</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44656</c:v>
+                  <c:v>44670</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44670</c:v>
+                  <c:v>44663</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44663</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>44663</c:v>
                 </c:pt>
               </c:numCache>
@@ -737,10 +728,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Blad1!$D$3:$D$22</c:f>
+              <c:f>Blad1!$D$3:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -769,36 +760,33 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
@@ -1868,24 +1856,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EFB29FC-42DD-45CC-9830-45C01CB650DF}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="84.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="86.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="84.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="86.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1894,7 +1882,7 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1905,7 +1893,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="24" t="s">
         <v>1</v>
@@ -1913,7 +1901,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1933,7 +1921,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -1944,7 +1932,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="24">
-        <f t="shared" ref="D4:D22" si="0">E4-B4</f>
+        <f t="shared" ref="D4:D11" si="0">E4-B4</f>
         <v>1</v>
       </c>
       <c r="E4" s="7">
@@ -1953,7 +1941,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1973,7 +1961,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -1993,7 +1981,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>7</v>
       </c>
@@ -2013,7 +2001,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
     </row>
-    <row r="8" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>8</v>
       </c>
@@ -2033,9 +2021,9 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="21">
         <v>44608</v>
@@ -2053,9 +2041,9 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="23">
         <v>44614</v>
@@ -2071,15 +2059,15 @@
         <v>44628</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="25">
         <v>44614</v>
@@ -2095,235 +2083,217 @@
         <v>44621</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="20">
-        <v>44628</v>
+        <v>44649</v>
       </c>
       <c r="C12" s="3">
         <v>8</v>
       </c>
       <c r="D12" s="24">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <f>E12-B12</f>
+        <v>28</v>
       </c>
       <c r="E12" s="14">
-        <v>44649</v>
+        <v>44677</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="29">
+        <v>44628</v>
+      </c>
+      <c r="C13" s="8">
+        <v>20</v>
+      </c>
+      <c r="D13" s="24">
+        <f>E13-B13</f>
+        <v>35</v>
+      </c>
+      <c r="E13" s="9">
+        <v>44663</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="20">
+        <v>44628</v>
+      </c>
+      <c r="C14" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="20">
-        <v>44649</v>
-      </c>
-      <c r="C13" s="3">
-        <v>8</v>
-      </c>
-      <c r="D13" s="24">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="E13" s="14">
-        <v>44677</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>16</v>
+      <c r="D14" s="24">
+        <f>E14-B14</f>
+        <v>7</v>
+      </c>
+      <c r="E14" s="14">
+        <v>44635</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="29">
-        <v>44628</v>
-      </c>
-      <c r="C14" s="8">
-        <v>20</v>
-      </c>
-      <c r="D14" s="24">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E14" s="9">
-        <v>44663</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27" t="s">
+    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="20">
-        <v>44628</v>
-      </c>
-      <c r="C15" s="3">
-        <v>10</v>
+      <c r="B15" s="21">
+        <v>44635</v>
+      </c>
+      <c r="C15" s="6">
+        <v>5</v>
       </c>
       <c r="D15" s="24">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E15" s="14">
-        <v>44635</v>
+        <f>E15-B15</f>
+        <v>5</v>
+      </c>
+      <c r="E15" s="7">
+        <v>44640</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="21">
-        <v>44635</v>
-      </c>
-      <c r="C16" s="6">
-        <v>5</v>
+    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="20">
+        <v>44640</v>
+      </c>
+      <c r="C16" s="3">
+        <v>8</v>
       </c>
       <c r="D16" s="24">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E16" s="7">
-        <v>44640</v>
+        <f>E16-B16</f>
+        <v>9</v>
+      </c>
+      <c r="E16" s="28">
+        <v>44649</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="27" t="s">
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="20">
-        <v>44640</v>
-      </c>
-      <c r="C17" s="3">
+      <c r="B17" s="21">
+        <v>44649</v>
+      </c>
+      <c r="C17" s="6">
         <v>8</v>
       </c>
       <c r="D17" s="24">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="E17" s="28">
-        <v>44649</v>
+        <f>E17-B17</f>
+        <v>7</v>
+      </c>
+      <c r="E17" s="7">
+        <v>44656</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="21">
-        <v>44649</v>
-      </c>
-      <c r="C18" s="6">
-        <v>8</v>
+      <c r="B18" s="20">
+        <v>44656</v>
+      </c>
+      <c r="C18" s="3">
+        <v>4</v>
       </c>
       <c r="D18" s="24">
-        <f t="shared" si="0"/>
+        <f>E18-B18</f>
         <v>7</v>
       </c>
-      <c r="E18" s="7">
-        <v>44656</v>
+      <c r="E18" s="14">
+        <v>44663</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27" t="s">
-        <v>24</v>
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="B19" s="20">
-        <v>44656</v>
+        <v>44670</v>
       </c>
       <c r="C19" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" s="24">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E19" s="14">
-        <v>44663</v>
+        <f>E19-B19</f>
+        <v>21</v>
+      </c>
+      <c r="E19" s="28">
+        <v>44691</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="21">
+        <v>44663</v>
+      </c>
+      <c r="C20" s="6">
+        <v>5</v>
+      </c>
+      <c r="D20" s="24">
+        <f>E20-B20</f>
+        <v>35</v>
+      </c>
+      <c r="E20" s="7">
+        <v>44698</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="20">
-        <v>44670</v>
-      </c>
-      <c r="C20" s="3">
-        <v>2</v>
-      </c>
-      <c r="D20" s="24">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="E20" s="28">
-        <v>44691</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="20">
         <v>44663</v>
       </c>
-      <c r="C21" s="6">
-        <v>5</v>
+      <c r="C21" s="3">
+        <v>10</v>
       </c>
       <c r="D21" s="24">
-        <f t="shared" si="0"/>
+        <f>E21-B21</f>
         <v>35</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="14">
         <v>44698</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="20">
-        <v>44663</v>
-      </c>
-      <c r="C22" s="3">
-        <v>10</v>
-      </c>
-      <c r="D22" s="24">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="E22" s="14">
-        <v>44698</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
